--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>608541.4625306461</v>
+        <v>692602.8079882439</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12454934.45781348</v>
+        <v>12496676.879328</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5696660.572628302</v>
+        <v>7127088.055546218</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9773542.223633146</v>
+        <v>9073746.424316287</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>296.868602090236</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>62.42506650037875</v>
       </c>
       <c r="C3" t="n">
-        <v>151.0712364241625</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>112.7516665411916</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>27.14246217534277</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>179.4336257791588</v>
+        <v>28.33592091243833</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>78.05748680113284</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>5.573327086027478</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>145.2481701217138</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>84.66832559064089</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.6668577520925</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>105.8612816265676</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>99.5024942096989</v>
       </c>
       <c r="E11" t="n">
-        <v>271.8722534420411</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>36.89863216765678</v>
       </c>
       <c r="X14" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>264.6171092506985</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>197.2040098788582</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>64.39306735501918</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>173.8480963106752</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>145.2481701217134</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>122.4179473152591</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>10.29189690374586</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>6.38006817584838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>208.5297823800585</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>16.34825474388594</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7944255145761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>101.1471539705512</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>224.3548762208278</v>
       </c>
       <c r="V29" t="n">
-        <v>173.5578851713674</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>147.872678084524</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>299.3798747282129</v>
+        <v>170.2563765329845</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3086,16 +3088,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>50.67976296843104</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>57.68750238080799</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>190.1921129400379</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>270.8352357940379</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>111.9187566128687</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>22.79319361026555</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.0045690759197</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380542</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3746,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>126.7498226612768</v>
+        <v>17.35112070699422</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>82.39501537729573</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.23490948285976</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>155.838020272038</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>63.82941531820376</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>78.0216576487244</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>276.7752671228574</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.3082392843501</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="C2" t="n">
-        <v>533.3082392843501</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="D2" t="n">
-        <v>533.3082392843501</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="E2" t="n">
-        <v>533.3082392843501</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="F2" t="n">
-        <v>122.3223344947425</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="G2" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>2036.325171642784</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>1826.151173794699</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>1572.544009457208</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V2" t="n">
-        <v>1272.676734618586</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W2" t="n">
-        <v>919.9080793484718</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X2" t="n">
-        <v>919.9080793484718</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.9080793484718</v>
+        <v>181.8429936158252</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>909.4422898481339</v>
+        <v>497.6269409211394</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8450813388788</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9106716776275</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6732166721721</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>302.138658699057</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>165.2626649141729</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>69.80729798300612</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>1166.88538687358</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.295032556957</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>2154.745546059887</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>2029.495166406371</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>1834.784844880347</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>1606.683255013611</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>1371.531146781868</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W3" t="n">
-        <v>1117.293790053667</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X3" t="n">
-        <v>909.4422898481339</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y3" t="n">
-        <v>909.4422898481339</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>855.9247838218599</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C4" t="n">
-        <v>686.988600893953</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="D4" t="n">
-        <v>536.8719614816173</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="E4" t="n">
-        <v>388.9588678992242</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="F4" t="n">
-        <v>388.9588678992242</v>
+        <v>489.3218289035392</v>
       </c>
       <c r="G4" t="n">
-        <v>220.8260384942426</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="H4" t="n">
-        <v>70.78582499803525</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
-        <v>43.36919653809306</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
-        <v>58.6963092017423</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>213.7203003246705</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>467.6240706728883</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>745.7191196640786</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>1022.636306385109</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O4" t="n">
-        <v>1262.397853152952</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P4" t="n">
-        <v>1444.034594271086</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T4" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U4" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V4" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W4" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X4" t="n">
-        <v>1258.36582779563</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y4" t="n">
-        <v>1037.5732486521</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1990.953909778728</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="W5" t="n">
-        <v>2381.09324175454</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="X5" t="n">
-        <v>2381.09324175454</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="Y5" t="n">
-        <v>1990.953909778728</v>
+        <v>710.0001061843504</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>2238.100841080695</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>721.6094252585024</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="C7" t="n">
-        <v>552.6732423305955</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="D7" t="n">
-        <v>552.6732423305955</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269233</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.050469232272</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="X7" t="n">
-        <v>1124.050469232272</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="Y7" t="n">
-        <v>903.2578900887421</v>
+        <v>38.67250990818523</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>515.2467085824435</v>
       </c>
       <c r="C8" t="n">
-        <v>552.807938939214</v>
+        <v>515.2467085824435</v>
       </c>
       <c r="D8" t="n">
-        <v>406.0926155839475</v>
+        <v>515.2467085824435</v>
       </c>
       <c r="E8" t="n">
-        <v>406.0926155839475</v>
+        <v>515.2467085824435</v>
       </c>
       <c r="F8" t="n">
-        <v>406.0926155839475</v>
+        <v>515.2467085824435</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>515.2467085824435</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>515.2467085824435</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>577.4363251833024</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>897.3432206518116</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1240.125744646443</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1531.484990901009</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2061.271547415447</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1973.846839276277</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>954.407539542579</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="V10" t="n">
-        <v>1914.135768168901</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.71859813194</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>410.5967303107157</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1865.035106955552</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C11" t="n">
-        <v>1865.035106955552</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D11" t="n">
-        <v>1506.769408348802</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2641.774278995486</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2251.634947019674</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5200,16 +5202,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5300,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W14" t="n">
-        <v>3215.315153136265</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1156.721581898233</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>902.0370936923462</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>612.6199236553855</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C17" t="n">
         <v>1976.204921733553</v>
@@ -5510,55 +5512,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>646.6939999491682</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C19" t="n">
-        <v>477.7578170212613</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D19" t="n">
-        <v>477.7578170212613</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E19" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1862.251045709686</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1573.14817883533</v>
       </c>
       <c r="V19" t="n">
-        <v>1224.739181610489</v>
+        <v>1318.463690629443</v>
       </c>
       <c r="W19" t="n">
-        <v>1224.739181610489</v>
+        <v>1029.046520592482</v>
       </c>
       <c r="X19" t="n">
-        <v>1049.135043922938</v>
+        <v>1029.046520592482</v>
       </c>
       <c r="Y19" t="n">
-        <v>828.3424647794079</v>
+        <v>1029.046520592482</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796252</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C20" t="n">
-        <v>552.8079389392135</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>406.0926155839475</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>406.0926155839475</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5828,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952861</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952861</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952861</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952861</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952861</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.32286476305</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888694</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682807</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645846</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.128788747829</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y22" t="n">
-        <v>1540.336209604299</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038042</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.669719097631</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.40402049088</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E23" t="n">
-        <v>709.6157678926361</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>298.6298631030285</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339056</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077976</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102164</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="24">
@@ -6057,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1640.204086189705</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C25" t="n">
-        <v>1471.267903261798</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>3103.839206178696</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>2814.73633930434</v>
+        <v>1716.658404270252</v>
       </c>
       <c r="V25" t="n">
-        <v>2560.051851098453</v>
+        <v>1716.658404270252</v>
       </c>
       <c r="W25" t="n">
-        <v>2270.634681061492</v>
+        <v>1427.241234233291</v>
       </c>
       <c r="X25" t="n">
-        <v>2042.645130163475</v>
+        <v>1199.251683335274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1821.852551019945</v>
+        <v>978.4591041917437</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.337405520487</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V26" t="n">
-        <v>3009.337405520487</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W26" t="n">
-        <v>3009.337405520487</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X26" t="n">
-        <v>3009.337405520487</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y26" t="n">
-        <v>2731.767278738087</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>266.0066360083342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6406,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W28" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X28" t="n">
-        <v>362.8175152271517</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.0249360836216</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1647.321240915451</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C29" t="n">
-        <v>1278.358723975039</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="V29" t="n">
-        <v>3150.294826486578</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="W29" t="n">
-        <v>2797.526171216464</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X29" t="n">
-        <v>2424.060412955384</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y29" t="n">
-        <v>2033.921080979572</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="30">
@@ -6531,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.0249360836216</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C31" t="n">
-        <v>142.0249360836216</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D31" t="n">
-        <v>142.0249360836216</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6649,22 +6651,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1496.411865173328</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1207.308998298972</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>952.6245100930846</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251691</v>
+        <v>663.2073400561239</v>
       </c>
       <c r="X31" t="n">
-        <v>362.8175152271517</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.0249360836216</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1808.800296392464</v>
+        <v>2089.358425227295</v>
       </c>
       <c r="C32" t="n">
-        <v>1439.837779452052</v>
+        <v>1720.395908286883</v>
       </c>
       <c r="D32" t="n">
-        <v>1081.572080845302</v>
+        <v>1362.130209680133</v>
       </c>
       <c r="E32" t="n">
-        <v>779.1681669784198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
         <v>779.1681669784198</v>
@@ -6698,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6734,16 +6736,16 @@
         <v>2866.097597267229</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923658</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653544</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.800296392464</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="Y32" t="n">
-        <v>1808.800296392464</v>
+        <v>2475.958265291417</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2372.180450800669</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034577</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622242</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039849</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>124.782320857242</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>3036.502954734814</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>2781.818466528927</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>2781.818466528927</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>2553.828915630909</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>2553.828915630909</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1506.396382525582</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C35" t="n">
-        <v>1137.43386558517</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D35" t="n">
-        <v>779.1681669784198</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E35" t="n">
-        <v>779.1681669784198</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6968,19 +6970,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y35" t="n">
-        <v>1698.50962791956</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="36">
@@ -7005,13 +7007,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>590.8070661251691</v>
+        <v>1579.48032391759</v>
       </c>
       <c r="C37" t="n">
-        <v>590.8070661251691</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D37" t="n">
-        <v>590.8070661251691</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E37" t="n">
-        <v>590.8070661251691</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621296</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251691</v>
+        <v>1989.118339645847</v>
       </c>
       <c r="X37" t="n">
-        <v>590.8070661251691</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y37" t="n">
-        <v>590.8070661251691</v>
+        <v>1761.12878874783</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7257,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>1861.970701620181</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>1693.034518692274</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>1542.917879279938</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959802</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>3036.502954734815</v>
       </c>
       <c r="V40" t="n">
-        <v>1638.191681214136</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="W40" t="n">
-        <v>1348.774511177176</v>
+        <v>2492.401296491968</v>
       </c>
       <c r="X40" t="n">
-        <v>1348.774511177176</v>
+        <v>2264.41174559395</v>
       </c>
       <c r="Y40" t="n">
-        <v>1127.981932033646</v>
+        <v>2043.61916645042</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796252</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392135</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D41" t="n">
-        <v>194.542240332463</v>
+        <v>1337.882007288089</v>
       </c>
       <c r="E41" t="n">
-        <v>194.542240332463</v>
+        <v>952.0937546898451</v>
       </c>
       <c r="F41" t="n">
-        <v>194.542240332463</v>
+        <v>541.1078499002376</v>
       </c>
       <c r="G41" t="n">
-        <v>194.542240332463</v>
+        <v>126.0353997452341</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
@@ -7412,22 +7414,22 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7439,22 +7441,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943747</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>310.0549803959802</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C43" t="n">
-        <v>310.0549803959802</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D43" t="n">
-        <v>310.0549803959802</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E43" t="n">
-        <v>310.0549803959802</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="F43" t="n">
-        <v>310.0549803959802</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>295.9565914742203</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>149.7394046920781</v>
       </c>
       <c r="I43" t="n">
         <v>66.5121164321834</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251691</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271517</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y43" t="n">
-        <v>310.0549803959802</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796252</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C44" t="n">
-        <v>764.3583141906979</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>406.0926155839475</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>406.0926155839475</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
@@ -7646,13 +7648,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7673,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943747</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.5121164321834</v>
@@ -7731,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>561.7003711548124</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C46" t="n">
-        <v>392.7641882269055</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D46" t="n">
-        <v>242.6475488145698</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E46" t="n">
-        <v>242.6475488145698</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>242.6475488145698</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6475488145698</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
         <v>66.5121164321834</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1326.59460854119</v>
+        <v>1647.723571196718</v>
       </c>
       <c r="V46" t="n">
-        <v>1071.910120335303</v>
+        <v>1393.039082990831</v>
       </c>
       <c r="W46" t="n">
-        <v>782.4929502983425</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="X46" t="n">
-        <v>782.4929502983425</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y46" t="n">
-        <v>561.7003711548124</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>182.3656402706162</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.4490126143849</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>73.9801593665282</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>247.9252960539636</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V2" t="n">
-        <v>30.88365637989887</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>104.1081171494886</v>
       </c>
       <c r="C3" t="n">
-        <v>21.63726256415319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22635,16 +22637,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>33.6822961053776</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.01170327174076</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,10 +22770,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>169.8073429382542</v>
+        <v>320.9050478049747</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>60.6912312339964</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>68.37647584543633</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>246.5643162378005</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>209.4348714989691</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>327.2024092529859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23112,13 +23114,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,10 +23150,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.09636055867130722</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>60.5902194843642</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.180547410984</v>
       </c>
       <c r="E11" t="n">
-        <v>110.0581166302206</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>312.3423365497562</v>
       </c>
       <c r="X14" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>21.59472895491439</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>168.0688818921493</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>155.15588192115</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>51.86155907836192</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>209.4348714989696</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>222.7020862222412</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>43.60786094376914</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>372.4419447597347</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>142.235404842364</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>77.68205582555436</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>187.5697153957342</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>111.4435131414775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>43.60786094376959</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>26.64029573807417</v>
       </c>
       <c r="V29" t="n">
-        <v>154.1943732987675</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>21.5947289549143</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>71.67627119164521</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>82.55049534404884</v>
+        <v>211.6739935392773</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24974,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>116.5670581301968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>38.6649180290301</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>192.5417287234427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>111.0951342782238</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>53.73645647354638</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>33.50229141006257</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>228.2019783486364</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>143.8274111060176</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>69.12041821276375</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>167.8579417260437</v>
+        <v>277.2566436803262</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>13.95740503254235</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.349743869235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>209.4348714989696</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>285.4115533992093</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>66.73335726559638</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>9.436571082755449</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>719481.5807333307</v>
+        <v>464372.277519429</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>787807.67382304</v>
+        <v>464372.2775194288</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>864081.6827625358</v>
+        <v>719481.5807333307</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>864081.6827625359</v>
+        <v>864081.682762536</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>864081.6827625358</v>
+        <v>864081.6827625361</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>864081.6827625359</v>
+        <v>864081.682762536</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>864081.6827625359</v>
+        <v>864081.682762536</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>864081.682762536</v>
+        <v>864081.6827625358</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>864081.6827625359</v>
+        <v>864081.6827625356</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>864081.6827625359</v>
+        <v>864081.6827625358</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>864081.6827625359</v>
+        <v>864081.6827625358</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>864081.6827625359</v>
+        <v>864081.6827625358</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279547.2423401895</v>
+        <v>180441.6164408226</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943085</v>
+        <v>180441.6164408227</v>
       </c>
       <c r="D2" t="n">
+        <v>279547.2423401893</v>
+      </c>
+      <c r="E2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="F2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="E2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="G2" t="n">
-        <v>340997.0989709205</v>
-      </c>
       <c r="H2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709205</v>
@@ -26341,19 +26343,19 @@
         <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="M2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="N2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>340997.0989709204</v>
       </c>
       <c r="O2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709204</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230093</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>104983.4505300438</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>371558.5249487661</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>276030.7457669102</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376602</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>25342.99488522369</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>89743.37813127032</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72091.35261608622</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>13430.84951441317</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13430.84951441317</v>
+      </c>
+      <c r="D4" t="n">
         <v>21058.76689085118</v>
       </c>
-      <c r="C4" t="n">
-        <v>23400.4128510679</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12210.17896214071</v>
-      </c>
       <c r="E4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214069</v>
       </c>
       <c r="F4" t="n">
         <v>12210.17896214071</v>
@@ -26436,7 +26438,7 @@
         <v>12210.17896214071</v>
       </c>
       <c r="I4" t="n">
-        <v>12210.17896214067</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="J4" t="n">
         <v>12210.17896214071</v>
@@ -26467,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161357</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56985.80041161357</v>
+      </c>
+      <c r="D5" t="n">
         <v>85199.08185587224</v>
       </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
-      </c>
       <c r="E5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26503,7 +26505,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831032.4916366272</v>
+        <v>-481331.9360060495</v>
       </c>
       <c r="C6" t="n">
-        <v>84649.99467335216</v>
+        <v>110024.9665147959</v>
       </c>
       <c r="D6" t="n">
-        <v>28225.83900704872</v>
+        <v>-198269.1313553002</v>
       </c>
       <c r="E6" t="n">
-        <v>254480.5794473865</v>
+        <v>-21550.16631952354</v>
       </c>
       <c r="F6" t="n">
         <v>254480.5794473867</v>
       </c>
       <c r="G6" t="n">
+        <v>254480.5794473866</v>
+      </c>
+      <c r="H6" t="n">
+        <v>254480.5794473867</v>
+      </c>
+      <c r="I6" t="n">
+        <v>254480.5794473867</v>
+      </c>
+      <c r="J6" t="n">
+        <v>205415.6347188419</v>
+      </c>
+      <c r="K6" t="n">
         <v>254480.5794473865</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>164737.2013161163</v>
+      </c>
+      <c r="M6" t="n">
+        <v>182389.2268313004</v>
+      </c>
+      <c r="N6" t="n">
         <v>254480.5794473866</v>
-      </c>
-      <c r="I6" t="n">
-        <v>254480.5794473865</v>
-      </c>
-      <c r="J6" t="n">
-        <v>112639.4537097263</v>
-      </c>
-      <c r="K6" t="n">
-        <v>229137.5845621628</v>
-      </c>
-      <c r="L6" t="n">
-        <v>206186.609439196</v>
-      </c>
-      <c r="M6" t="n">
-        <v>254480.5794473866</v>
-      </c>
-      <c r="N6" t="n">
-        <v>254480.5794473864</v>
       </c>
       <c r="O6" t="n">
         <v>254480.5794473865</v>
       </c>
       <c r="P6" t="n">
-        <v>254480.5794473866</v>
+        <v>254480.5794473864</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>548.4699409129046</v>
+      </c>
+      <c r="C3" t="n">
+        <v>548.4699409129046</v>
+      </c>
+      <c r="D3" t="n">
         <v>853.7106645376841</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
-      </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26787,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="C4" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="D4" t="n">
         <v>542.1149567261632</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>80.35422757985521</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>236.0660360556144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>98.46987537387554</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261631</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>98.46987537387588</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>98.46987537387554</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>63.22291242095115</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053859</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153089</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953979</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32798,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353162</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34135,7 +34137,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
         <v>769.2673490574995</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140554</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109602</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>399.0408075038491</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>304.4954681847781</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>156.5898900231598</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>256.4684548971897</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>280.9040898900911</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>279.7143300212425</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>242.1833805735793</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>183.4714556748827</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>302.9297349452394</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>334.1328215483338</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>535.1379358731701</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609572</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
